--- a/data/xlsx/HubArea.xlsx
+++ b/data/xlsx/HubArea.xlsx
@@ -1009,7 +1009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1504,6 +1504,72 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AID_馬ふれあい</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>马厩</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Refresh</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AID_果物狩り</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>果树园</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Refresh</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AID_水遊び</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>泳池</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Refresh</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
